--- a/medicine/Psychotrope/Fût_(récipient)/Fût_(récipient).xlsx
+++ b/medicine/Psychotrope/Fût_(récipient)/Fût_(récipient).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>F%C3%BBt_(r%C3%A9cipient)</t>
+          <t>Fût_(récipient)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fût (ou fut [selon la réforme de l'orthographe de 1990 ou futaille) est un contenant de forme cylindrique destiné au transport de marchandises en vrac, telles que les produits alimentaires ou chimiques. Le fût a généralement une large ouverture. Il peut être certifié pour transporter des matières dangereuses.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>F%C3%BBt_(r%C3%A9cipient)</t>
+          <t>Fût_(récipient)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Composition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un fût peut être en :
 acier : fût de bière ;
